--- a/medicine/Nettoyage et hygiène/Stérilisation_par_ultraviolets/Stérilisation_par_ultraviolets.xlsx
+++ b/medicine/Nettoyage et hygiène/Stérilisation_par_ultraviolets/Stérilisation_par_ultraviolets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>St%C3%A9rilisation_par_ultraviolets</t>
+          <t>Stérilisation_par_ultraviolets</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La stérilisation par rayonnement ultraviolet est une méthode de stérilisation reposant sur la sensibilité des micro-organismes à l'exposition aux basses longueurs d'onde des ultraviolets. Cette méthode est utilisée dans les laboratoires de recherche pour préparer les plans de travail stériles, pour la conservation des aliments, ou encore la purification de l'air ou l'eau.
 Les ultraviolets sont connus pour leur caractère mutagène depuis le début du XXe siècle, et le prix Nobel de médecine de Niels Finsen.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>St%C3%A9rilisation_par_ultraviolets</t>
+          <t>Stérilisation_par_ultraviolets</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'utilisation des basses longueurs d'onde des ultraviolets affecte l'intégrité des génomes des organismes exposés par l'accumulation de dommages tels que l'apparition de dimères de pyrimidines.  L'accumulation de ces dommages conduit à la mort des organismes exposés.
 </t>
